--- a/Apollo247/target/test-classes/ExcelData/Brands.xlsx
+++ b/Apollo247/target/test-classes/ExcelData/Brands.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training materials\JAVA\Apollo 247\Apollo247\src\test\resources\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D52EB2C-C56F-455F-BB9A-65D1FB6071E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{71B9FE5B-FAF9-464A-BD14-ACB890894270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7F482FE8-9EDC-41BB-A077-84BF3645AAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,27 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>BrandName</t>
+    <t>Boroline</t>
   </si>
   <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Apollo Pharmacy</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Doctor's Choice</t>
-  </si>
-  <si>
-    <t>Omron</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Dettol</t>
   </si>
 </sst>
 </file>
@@ -440,7 +421,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,35 +434,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Apollo247/target/test-classes/ExcelData/Brands.xlsx
+++ b/Apollo247/target/test-classes/ExcelData/Brands.xlsx
@@ -3,41 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{71B9FE5B-FAF9-464A-BD14-ACB890894270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3C94EDA-A259-4E1D-BD46-0EB8AF31C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7F482FE8-9EDC-41BB-A077-84BF3645AAE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{7F482FE8-9EDC-41BB-A077-84BF3645AAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Boroline</t>
   </si>
   <si>
     <t>Dettol</t>
+  </si>
+  <si>
+    <t>Savlon</t>
   </si>
 </sst>
 </file>
@@ -420,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248F81A-921D-4169-A721-16B6FA041EF0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -447,4 +440,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4457A85-9E54-499B-B114-A425278BC31C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Apollo247/target/test-classes/ExcelData/Brands.xlsx
+++ b/Apollo247/target/test-classes/ExcelData/Brands.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3C94EDA-A259-4E1D-BD46-0EB8AF31C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training materials\JAVA\Apollo 247\Apollo247\src\test\resources\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBB4A90-7C85-4610-B485-658838E86DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{7F482FE8-9EDC-41BB-A077-84BF3645AAE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{7F482FE8-9EDC-41BB-A077-84BF3645AAE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Boroline</t>
   </si>
@@ -31,6 +36,9 @@
   </si>
   <si>
     <t>Savlon</t>
+  </si>
+  <si>
+    <t>6787-897</t>
   </si>
 </sst>
 </file>
@@ -411,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248F81A-921D-4169-A721-16B6FA041EF0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -434,8 +442,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -446,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4457A85-9E54-499B-B114-A425278BC31C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +472,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8971696F-83FB-48FE-9373-F123F5D526F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>